--- a/public/uploads/files/excel/export/province.xlsx
+++ b/public/uploads/files/excel/export/province.xlsx
@@ -95,7 +95,7 @@
     <t>Pisa</t>
   </si>
   <si>
-    <t>2021-01-28 10:57:49</t>
+    <t>2021-02-02 01:27:21</t>
   </si>
   <si>
     <t>PT</t>
